--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -225,7 +225,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -419,7 +419,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -225,7 +225,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -265,7 +265,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -31,6 +31,15 @@
     <t xml:space="preserve">Test_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гудков</t>
   </si>
   <si>
@@ -47,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Кочергин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
   </si>
   <si>
     <t xml:space="preserve">Кузнецов</t>
@@ -131,12 +143,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF58220"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -180,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,6 +219,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +236,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFF58220"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -222,10 +304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,15 +327,34 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(C2:E2)</f>
         <v>0</v>
       </c>
     </row>
@@ -261,33 +362,63 @@
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">AVERAGE(C3:E3)</f>
+        <v>4.38333333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="D4" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">AVERAGE(C4:E4)</f>
+        <v>4.8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">AVERAGE(C5:E5)</f>
+        <v>3.16666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,9 +426,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">AVERAGE(C6:E6)</f>
         <v>0</v>
       </c>
     </row>
@@ -305,11 +446,21 @@
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">AVERAGE(C7:E7)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,9 +468,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">AVERAGE(C8:E8)</f>
         <v>0</v>
       </c>
     </row>
@@ -328,10 +489,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">AVERAGE(C9:E9)</f>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,9 +510,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">AVERAGE(C10:E10)</f>
         <v>0</v>
       </c>
     </row>
@@ -350,9 +531,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">AVERAGE(C11:E11)</f>
         <v>0</v>
       </c>
     </row>
@@ -360,11 +551,21 @@
       <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">AVERAGE(C12:E12)</f>
+        <v>4.33333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,9 +573,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">AVERAGE(C13:E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -382,22 +593,42 @@
       <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">AVERAGE(C14:E14)</f>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">AVERAGE(C15:E15)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,9 +636,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">AVERAGE(C16:E16)</f>
         <v>0</v>
       </c>
     </row>
@@ -415,10 +656,20 @@
       <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">AVERAGE(C17:E17)</f>
         <v>4</v>
       </c>
     </row>
@@ -426,10 +677,20 @@
       <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">AVERAGE(C18:E18)</f>
         <v>4</v>
       </c>
     </row>
@@ -438,9 +699,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">AVERAGE(C19:E19)</f>
         <v>0</v>
       </c>
     </row>
@@ -448,33 +719,63 @@
       <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">AVERAGE(C20:E20)</f>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>22</v>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">AVERAGE(C21:E21)</f>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>23</v>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2.5</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">AVERAGE(C22:E22)</f>
+        <v>4.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">Rating</t>
   </si>
   <si>
+    <t xml:space="preserve">Экзамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В зачетку</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гудков</t>
   </si>
   <si>
@@ -58,9 +64,6 @@
     <t xml:space="preserve">Кочергин</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кузнецов</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Цыбурков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпухин</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +160,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF58220"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,7 +235,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,7 +300,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FFFF6600"/>
@@ -304,10 +324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,8 +353,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,7 +368,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -353,8 +379,13 @@
       <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="6" t="n">
         <f aca="false">AVERAGE(C2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="n">
+        <f aca="false">0.6*G2+0.4*F2</f>
         <v>0</v>
       </c>
     </row>
@@ -362,8 +393,8 @@
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.9</v>
@@ -372,19 +403,24 @@
         <v>3.75</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <f aca="false">AVERAGE(C3:E3)</f>
-        <v>4.38333333333333</v>
+        <v>4.48333333333333</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="n">
+        <f aca="false">0.6*G3+0.4*F3</f>
+        <v>1.79333333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5</v>
@@ -393,19 +429,24 @@
         <v>4.9</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F4" s="6" t="n">
         <f aca="false">AVERAGE(C4:E4)</f>
-        <v>4.8</v>
+        <v>4.9</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="n">
+        <f aca="false">0.6*G4+0.4*F4</f>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.5</v>
@@ -416,17 +457,22 @@
       <c r="E5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="6" t="n">
         <f aca="false">AVERAGE(C5:E5)</f>
         <v>3.16666666666667</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="n">
+        <f aca="false">0.6*G5+0.4*F5</f>
+        <v>1.26666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
@@ -437,8 +483,13 @@
       <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="6" t="n">
         <f aca="false">AVERAGE(C6:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="n">
+        <f aca="false">0.6*G6+0.4*F6</f>
         <v>0</v>
       </c>
     </row>
@@ -446,21 +497,26 @@
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+      <c r="D7" s="2" t="n">
+        <v>2.5</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="6" t="n">
         <f aca="false">AVERAGE(C7:E7)</f>
         <v>2.5</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="n">
+        <f aca="false">0.6*G7+0.4*F7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
@@ -479,8 +535,13 @@
       <c r="E8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="6" t="n">
         <f aca="false">AVERAGE(C8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="n">
+        <f aca="false">0.6*G8+0.4*F8</f>
         <v>0</v>
       </c>
     </row>
@@ -489,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -500,9 +561,14 @@
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="6" t="n">
         <f aca="false">AVERAGE(C9:E9)</f>
         <v>0.666666666666667</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="n">
+        <f aca="false">0.6*G9+0.4*F9</f>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
@@ -521,8 +587,13 @@
       <c r="E10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="6" t="n">
         <f aca="false">AVERAGE(C10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="n">
+        <f aca="false">0.6*G10+0.4*F10</f>
         <v>0</v>
       </c>
     </row>
@@ -531,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0</v>
@@ -542,8 +613,13 @@
       <c r="E11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="6" t="n">
         <f aca="false">AVERAGE(C11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="n">
+        <f aca="false">0.6*G11+0.4*F11</f>
         <v>0</v>
       </c>
     </row>
@@ -551,8 +627,8 @@
       <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.5</v>
@@ -561,11 +637,16 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F12" s="6" t="n">
         <f aca="false">AVERAGE(C12:E12)</f>
-        <v>4.33333333333333</v>
+        <v>4.43333333333333</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="n">
+        <f aca="false">0.6*G12+0.4*F12</f>
+        <v>1.77333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
@@ -584,8 +665,13 @@
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="6" t="n">
         <f aca="false">AVERAGE(C13:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="n">
+        <f aca="false">0.6*G13+0.4*F13</f>
         <v>0</v>
       </c>
     </row>
@@ -593,8 +679,8 @@
       <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3</v>
@@ -603,19 +689,24 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F14" s="6" t="n">
         <f aca="false">AVERAGE(C14:E14)</f>
-        <v>3.66666666666667</v>
+        <v>3.76666666666667</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="n">
+        <f aca="false">0.6*G14+0.4*F14</f>
+        <v>1.50666666666667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2</v>
@@ -626,9 +717,14 @@
       <c r="E15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="6" t="n">
         <f aca="false">AVERAGE(C15:E15)</f>
         <v>2.5</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="n">
+        <f aca="false">0.6*G15+0.4*F15</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
@@ -647,8 +743,13 @@
       <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="6" t="n">
         <f aca="false">AVERAGE(C16:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="n">
+        <f aca="false">0.6*G16+0.4*F16</f>
         <v>0</v>
       </c>
     </row>
@@ -656,8 +757,8 @@
       <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4</v>
@@ -666,19 +767,24 @@
         <v>3.5</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F17" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F17" s="6" t="n">
         <f aca="false">AVERAGE(C17:E17)</f>
-        <v>4</v>
+        <v>4.1</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="n">
+        <f aca="false">0.6*G17+0.4*F17</f>
+        <v>1.64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4</v>
@@ -687,19 +793,24 @@
         <v>3.5</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F18" s="6" t="n">
         <f aca="false">AVERAGE(C18:E18)</f>
-        <v>4</v>
+        <v>4.1</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="n">
+        <f aca="false">0.6*G18+0.4*F18</f>
+        <v>1.64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
@@ -710,8 +821,13 @@
       <c r="E19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="6" t="n">
         <f aca="false">AVERAGE(C19:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="n">
+        <f aca="false">0.6*G19+0.4*F19</f>
         <v>0</v>
       </c>
     </row>
@@ -719,8 +835,8 @@
       <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>25</v>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.8</v>
@@ -731,17 +847,22 @@
       <c r="E20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="6" t="n">
         <f aca="false">AVERAGE(C20:E20)</f>
         <v>3.1</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="n">
+        <f aca="false">0.6*G20+0.4*F20</f>
+        <v>1.24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>26</v>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.8</v>
@@ -750,19 +871,24 @@
         <v>3.5</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F21" s="6" t="n">
         <f aca="false">AVERAGE(C21:E21)</f>
-        <v>3.6</v>
+        <v>3.7</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="n">
+        <f aca="false">0.6*G21+0.4*F21</f>
+        <v>1.48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>27</v>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4</v>
@@ -771,11 +897,42 @@
         <v>4.5</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F22" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F22" s="6" t="n">
         <f aca="false">AVERAGE(C22:E22)</f>
-        <v>4.33333333333333</v>
+        <v>4.43333333333333</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="n">
+        <f aca="false">0.6*G22+0.4*F22</f>
+        <v>1.77333333333333</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <f aca="false">AVERAGE(C23:E23)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="n">
+        <f aca="false">0.6*G23+0.4*F23</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -327,7 +327,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,10 +409,12 @@
         <f aca="false">AVERAGE(C3:E3)</f>
         <v>4.48333333333333</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="H3" s="6" t="n">
         <f aca="false">0.6*G3+0.4*F3</f>
-        <v>1.79333333333333</v>
+        <v>7.19333333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,10 +437,12 @@
         <f aca="false">AVERAGE(C4:E4)</f>
         <v>4.9</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="H4" s="6" t="n">
         <f aca="false">0.6*G4+0.4*F4</f>
-        <v>1.96</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,10 +465,12 @@
         <f aca="false">AVERAGE(C5:E5)</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="H5" s="6" t="n">
         <f aca="false">0.6*G5+0.4*F5</f>
-        <v>1.26666666666667</v>
+        <v>4.86666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,10 +493,12 @@
         <f aca="false">AVERAGE(C6:E6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="H6" s="6" t="n">
         <f aca="false">0.6*G6+0.4*F6</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,10 +521,12 @@
         <f aca="false">AVERAGE(C7:E7)</f>
         <v>2.5</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="H7" s="6" t="n">
         <f aca="false">0.6*G7+0.4*F7</f>
-        <v>1</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,7 +611,7 @@
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="n">
@@ -643,10 +653,12 @@
         <f aca="false">AVERAGE(C12:E12)</f>
         <v>4.43333333333333</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" s="6" t="n">
         <f aca="false">0.6*G12+0.4*F12</f>
-        <v>1.77333333333333</v>
+        <v>2.37333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,10 +707,12 @@
         <f aca="false">AVERAGE(C14:E14)</f>
         <v>3.76666666666667</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="H14" s="6" t="n">
         <f aca="false">0.6*G14+0.4*F14</f>
-        <v>1.50666666666667</v>
+        <v>4.50666666666667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,10 +735,12 @@
         <f aca="false">AVERAGE(C15:E15)</f>
         <v>2.5</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="H15" s="6" t="n">
         <f aca="false">0.6*G15+0.4*F15</f>
-        <v>1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,10 +789,12 @@
         <f aca="false">AVERAGE(C17:E17)</f>
         <v>4.1</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="H17" s="6" t="n">
         <f aca="false">0.6*G17+0.4*F17</f>
-        <v>1.64</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,10 +817,12 @@
         <f aca="false">AVERAGE(C18:E18)</f>
         <v>4.1</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="H18" s="6" t="n">
         <f aca="false">0.6*G18+0.4*F18</f>
-        <v>1.64</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,10 +845,12 @@
         <f aca="false">AVERAGE(C19:E19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="H19" s="6" t="n">
         <f aca="false">0.6*G19+0.4*F19</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,10 +873,12 @@
         <f aca="false">AVERAGE(C20:E20)</f>
         <v>3.1</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="H20" s="6" t="n">
         <f aca="false">0.6*G20+0.4*F20</f>
-        <v>1.24</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,10 +901,12 @@
         <f aca="false">AVERAGE(C21:E21)</f>
         <v>3.7</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="H21" s="6" t="n">
         <f aca="false">0.6*G21+0.4*F21</f>
-        <v>1.48</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,10 +929,12 @@
         <f aca="false">AVERAGE(C22:E22)</f>
         <v>4.43333333333333</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="H22" s="6" t="n">
         <f aca="false">0.6*G22+0.4*F22</f>
-        <v>1.77333333333333</v>
+        <v>8.37333333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,10 +957,12 @@
         <f aca="false">AVERAGE(C23:E23)</f>
         <v>3.5</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="H23" s="6" t="n">
         <f aca="false">0.6*G23+0.4*F23</f>
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -46,15 +46,27 @@
     <t xml:space="preserve">В зачетку</t>
   </si>
   <si>
+    <t xml:space="preserve">Время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Билет</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гудков</t>
   </si>
   <si>
     <t xml:space="preserve">Дроздов</t>
   </si>
   <si>
+    <t xml:space="preserve">~</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ерофеев</t>
   </si>
   <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Карпочев</t>
   </si>
   <si>
@@ -77,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Лачугина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">Муканов</t>
@@ -149,7 +164,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +181,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF72BF44"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF450"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,7 +231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,7 +264,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,7 +326,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFF450"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -324,10 +357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,13 +395,28 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -383,18 +431,23 @@
         <f aca="false">AVERAGE(C2:E2)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="n">
+        <f aca="false">K2+L2+M2</f>
+        <v>0</v>
+      </c>
       <c r="H2" s="6" t="n">
         <f aca="false">0.6*G2+0.4*F2</f>
         <v>0</v>
       </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.9</v>
@@ -410,11 +463,27 @@
         <v>4.48333333333333</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>9</v>
+        <f aca="false">K3+L3+M3</f>
+        <v>3.87</v>
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">0.6*G3+0.4*F3</f>
-        <v>7.19333333333333</v>
+        <v>4.11533333333333</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5</v>
@@ -438,11 +507,27 @@
         <v>4.9</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>13</v>
+        <f aca="false">K4+L4+M4</f>
+        <v>5.01</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">0.6*G4+0.4*F4</f>
-        <v>9.76</v>
+        <v>4.966</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.5</v>
@@ -465,40 +550,72 @@
         <f aca="false">AVERAGE(C5:E5)</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>6</v>
+      <c r="G5" s="8" t="n">
+        <f aca="false">K5+L5+M5</f>
+        <v>2.1</v>
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">0.6*G5+0.4*F5</f>
-        <v>4.86666666666667</v>
+        <v>2.52666666666667</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="F6" s="6" t="n">
         <f aca="false">AVERAGE(C6:E6)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7</v>
+        <f aca="false">K6+L6+M6</f>
+        <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">0.6*G6+0.4*F6</f>
-        <v>4.2</v>
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -521,12 +638,28 @@
         <f aca="false">AVERAGE(C7:E7)</f>
         <v>2.5</v>
       </c>
-      <c r="G7" s="6" t="n">
-        <v>12</v>
+      <c r="G7" s="8" t="n">
+        <f aca="false">K7+L7+M7</f>
+        <v>1.67</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">0.6*G7+0.4*F7</f>
-        <v>8.2</v>
+        <v>2.002</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
@@ -549,18 +682,23 @@
         <f aca="false">AVERAGE(C8:E8)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="n">
+        <f aca="false">K8+L8+M8</f>
+        <v>0</v>
+      </c>
       <c r="H8" s="6" t="n">
         <f aca="false">0.6*G8+0.4*F8</f>
         <v>0</v>
       </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -575,18 +713,23 @@
         <f aca="false">AVERAGE(C9:E9)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="n">
+        <f aca="false">K9+L9+M9</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="6" t="n">
         <f aca="false">0.6*G9+0.4*F9</f>
         <v>0.266666666666667</v>
       </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
@@ -601,36 +744,59 @@
         <f aca="false">AVERAGE(C10:E10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="n">
+        <f aca="false">K10+L10+M10</f>
+        <v>0</v>
+      </c>
       <c r="H10" s="6" t="n">
         <f aca="false">0.6*G10+0.4*F10</f>
         <v>0</v>
       </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="F11" s="6" t="n">
         <f aca="false">AVERAGE(C11:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <f aca="false">K11+L11+M11</f>
+        <v>2.5</v>
+      </c>
       <c r="H11" s="6" t="n">
         <f aca="false">0.6*G11+0.4*F11</f>
-        <v>0</v>
+        <v>2.43333333333333</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.5</v>
@@ -653,12 +819,28 @@
         <f aca="false">AVERAGE(C12:E12)</f>
         <v>4.43333333333333</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="8" t="e">
+        <f aca="false">K12+L12+M12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="6" t="e">
+        <f aca="false">0.6*G12+0.4*F12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <f aca="false">0.6*G12+0.4*F12</f>
-        <v>2.37333333333333</v>
+      <c r="K12" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
@@ -681,18 +863,23 @@
         <f aca="false">AVERAGE(C13:E13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="n">
+        <f aca="false">K13+L13+M13</f>
+        <v>0</v>
+      </c>
       <c r="H13" s="6" t="n">
         <f aca="false">0.6*G13+0.4*F13</f>
         <v>0</v>
       </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3</v>
@@ -708,11 +895,27 @@
         <v>3.76666666666667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5</v>
+        <f aca="false">K14+L14+M14</f>
+        <v>3.34</v>
       </c>
       <c r="H14" s="6" t="n">
         <f aca="false">0.6*G14+0.4*F14</f>
-        <v>4.50666666666667</v>
+        <v>3.51066666666667</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2</v>
@@ -736,11 +939,27 @@
         <v>2.5</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8</v>
+        <f aca="false">K15+L15+M15</f>
+        <v>2.67</v>
       </c>
       <c r="H15" s="6" t="n">
         <f aca="false">0.6*G15+0.4*F15</f>
-        <v>5.8</v>
+        <v>2.602</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
@@ -763,38 +982,59 @@
         <f aca="false">AVERAGE(C16:E16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="n">
+        <f aca="false">K16+L16+M16</f>
+        <v>0</v>
+      </c>
       <c r="H16" s="6" t="n">
         <f aca="false">0.6*G16+0.4*F16</f>
         <v>0</v>
       </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>4.8</v>
       </c>
       <c r="F17" s="6" t="n">
         <f aca="false">AVERAGE(C17:E17)</f>
-        <v>4.1</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>14</v>
+        <f aca="false">K17+L17+M17</f>
+        <v>4.64</v>
       </c>
       <c r="H17" s="6" t="n">
         <f aca="false">0.6*G17+0.4*F17</f>
-        <v>10.04</v>
+        <v>4.49066666666667</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4</v>
@@ -818,39 +1058,71 @@
         <v>4.1</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15</v>
+        <f aca="false">K18+L18+M18</f>
+        <v>4.34</v>
       </c>
       <c r="H18" s="6" t="n">
         <f aca="false">0.6*G18+0.4*F18</f>
-        <v>10.64</v>
+        <v>4.244</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>25</v>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="6" t="n">
         <f aca="false">AVERAGE(C19:E19)</f>
-        <v>0</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4</v>
+        <f aca="false">K19+L19+M19</f>
+        <v>3.34</v>
       </c>
       <c r="H19" s="6" t="n">
         <f aca="false">0.6*G19+0.4*F19</f>
-        <v>2.4</v>
+        <v>3.07066666666667</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.8</v>
@@ -874,11 +1146,24 @@
         <v>3.1</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2</v>
+        <f aca="false">K20+L20+M20</f>
+        <v>2.67</v>
       </c>
       <c r="H20" s="6" t="n">
         <f aca="false">0.6*G20+0.4*F20</f>
-        <v>2.44</v>
+        <v>2.842</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,10 +1171,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>3.5</v>
@@ -899,14 +1184,30 @@
       </c>
       <c r="F21" s="6" t="n">
         <f aca="false">AVERAGE(C21:E21)</f>
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>10</v>
+        <f aca="false">K21+L21+M21</f>
+        <v>3.34</v>
       </c>
       <c r="H21" s="6" t="n">
         <f aca="false">0.6*G21+0.4*F21</f>
-        <v>7.48</v>
+        <v>3.644</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4</v>
@@ -930,11 +1231,27 @@
         <v>4.43333333333333</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11</v>
+        <f aca="false">K22+L22+M22</f>
+        <v>3.34</v>
       </c>
       <c r="H22" s="6" t="n">
         <f aca="false">0.6*G22+0.4*F22</f>
-        <v>8.37333333333333</v>
+        <v>3.77733333333333</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>4</v>
@@ -958,11 +1275,24 @@
         <v>3.5</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3</v>
+        <f aca="false">K23+L23+M23</f>
+        <v>3.34</v>
       </c>
       <c r="H23" s="6" t="n">
         <f aca="false">0.6*G23+0.4*F23</f>
-        <v>3.2</v>
+        <v>3.404</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Лачугина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">Муканов</t>
@@ -164,7 +161,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,13 +177,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF72BF44"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFADD58A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF450"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,6 +283,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -305,7 +312,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -360,7 +367,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,11 +471,11 @@
       </c>
       <c r="G3" s="6" t="n">
         <f aca="false">K3+L3+M3</f>
-        <v>3.87</v>
+        <v>4.67</v>
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">0.6*G3+0.4*F3</f>
-        <v>4.11533333333333</v>
+        <v>4.59533333333333</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>12</v>
@@ -483,7 +490,7 @@
         <v>1.4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,19 +595,19 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="6" t="n">
         <f aca="false">AVERAGE(C6:E6)</f>
-        <v>2.5</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="G6" s="6" t="n">
         <f aca="false">K6+L6+M6</f>
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">0.6*G6+0.4*F6</f>
-        <v>1</v>
+        <v>2.36866666666667</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>14</v>
@@ -609,13 +616,13 @@
         <v>7</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>2.5</v>
@@ -636,15 +643,15 @@
       </c>
       <c r="F7" s="6" t="n">
         <f aca="false">AVERAGE(C7:E7)</f>
-        <v>2.5</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="G7" s="8" t="n">
         <f aca="false">K7+L7+M7</f>
-        <v>1.67</v>
+        <v>3.27</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">0.6*G7+0.4*F7</f>
-        <v>2.002</v>
+        <v>3.09533333333333</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -653,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -762,18 +769,18 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="n">
-        <v>2</v>
+      <c r="C11" s="2" t="n">
+        <v>2.5</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="n">
-        <v>2</v>
+      <c r="E11" s="2" t="n">
+        <v>2.5</v>
       </c>
       <c r="F11" s="6" t="n">
         <f aca="false">AVERAGE(C11:E11)</f>
-        <v>2.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="G11" s="6" t="n">
         <f aca="false">K11+L11+M11</f>
@@ -781,7 +788,7 @@
       </c>
       <c r="H11" s="6" t="n">
         <f aca="false">0.6*G11+0.4*F11</f>
-        <v>2.43333333333333</v>
+        <v>2.56666666666667</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>12</v>
@@ -819,13 +826,13 @@
         <f aca="false">AVERAGE(C12:E12)</f>
         <v>4.43333333333333</v>
       </c>
-      <c r="G12" s="8" t="e">
+      <c r="G12" s="8" t="n">
         <f aca="false">K12+L12+M12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="6" t="e">
+        <v>4.84</v>
+      </c>
+      <c r="H12" s="6" t="n">
         <f aca="false">0.6*G12+0.4*F12</f>
-        <v>#VALUE!</v>
+        <v>4.67733333333333</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>12</v>
@@ -836,11 +843,11 @@
       <c r="K12" s="0" t="n">
         <v>1.67</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>23</v>
+      <c r="L12" s="11" t="n">
+        <v>1.67</v>
       </c>
       <c r="M12" s="11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
@@ -879,10 +886,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>3.5</v>
@@ -892,7 +899,7 @@
       </c>
       <c r="F14" s="6" t="n">
         <f aca="false">AVERAGE(C14:E14)</f>
-        <v>3.76666666666667</v>
+        <v>3.93333333333333</v>
       </c>
       <c r="G14" s="6" t="n">
         <f aca="false">K14+L14+M14</f>
@@ -900,7 +907,7 @@
       </c>
       <c r="H14" s="6" t="n">
         <f aca="false">0.6*G14+0.4*F14</f>
-        <v>3.51066666666667</v>
+        <v>3.57733333333333</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>12</v>
@@ -923,10 +930,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2.5</v>
@@ -936,15 +943,15 @@
       </c>
       <c r="F15" s="6" t="n">
         <f aca="false">AVERAGE(C15:E15)</f>
-        <v>2.5</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="G15" s="6" t="n">
         <f aca="false">K15+L15+M15</f>
         <v>2.67</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="12" t="n">
         <f aca="false">0.6*G15+0.4*F15</f>
-        <v>2.602</v>
+        <v>2.66866666666667</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>12</v>
@@ -967,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
@@ -998,10 +1005,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>4</v>
@@ -1011,7 +1018,7 @@
       </c>
       <c r="F17" s="6" t="n">
         <f aca="false">AVERAGE(C17:E17)</f>
-        <v>4.26666666666667</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="G17" s="6" t="n">
         <f aca="false">K17+L17+M17</f>
@@ -1019,7 +1026,7 @@
       </c>
       <c r="H17" s="6" t="n">
         <f aca="false">0.6*G17+0.4*F17</f>
-        <v>4.49066666666667</v>
+        <v>4.55733333333333</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>14</v>
@@ -1042,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4</v>
@@ -1086,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3</v>
@@ -1130,7 +1137,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.8</v>
@@ -1171,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4</v>
@@ -1188,11 +1195,11 @@
       </c>
       <c r="G21" s="6" t="n">
         <f aca="false">K21+L21+M21</f>
-        <v>3.34</v>
+        <v>5.01</v>
       </c>
       <c r="H21" s="6" t="n">
         <f aca="false">0.6*G21+0.4*F21</f>
-        <v>3.644</v>
+        <v>4.646</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>14</v>
@@ -1201,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>1.67</v>
@@ -1215,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4</v>
@@ -1232,11 +1239,11 @@
       </c>
       <c r="G22" s="6" t="n">
         <f aca="false">K22+L22+M22</f>
-        <v>3.34</v>
+        <v>4.49</v>
       </c>
       <c r="H22" s="6" t="n">
         <f aca="false">0.6*G22+0.4*F22</f>
-        <v>3.77733333333333</v>
+        <v>4.46733333333333</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>14</v>
@@ -1248,7 +1255,7 @@
         <v>1.67</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>1.67</v>
@@ -1259,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>4</v>

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -225,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,11 +289,15 @@
       <c r="C2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F2" s="6" t="n">
         <f aca="false">AVERAGE(C2:E2)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G2" s="6" t="n">
         <f aca="false">K2+L2+M2</f>
@@ -301,7 +305,7 @@
       </c>
       <c r="H2" s="6" t="n">
         <f aca="false">0.6*G2+0.4*F2</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -316,11 +320,15 @@
       <c r="C3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" s="6" t="n">
         <f aca="false">AVERAGE(C3:E3)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="6" t="n">
         <f aca="false">K3+L3+M3</f>
@@ -328,7 +336,7 @@
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">0.6*G3+0.4*F3</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -343,11 +351,15 @@
       <c r="C4" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" s="6" t="n">
         <f aca="false">AVERAGE(C4:E4)</f>
-        <v>4.5</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="G4" s="6" t="n">
         <f aca="false">K4+L4+M4</f>
@@ -355,7 +367,7 @@
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">0.6*G4+0.4*F4</f>
-        <v>1.8</v>
+        <v>1.93333333333333</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -370,11 +382,15 @@
       <c r="C5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" s="6" t="n">
         <f aca="false">AVERAGE(C5:E5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">K5+L5+M5</f>
@@ -382,7 +398,7 @@
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">0.6*G5+0.4*F5</f>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -397,11 +413,15 @@
       <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" s="6" t="n">
         <f aca="false">AVERAGE(C6:E6)</f>
-        <v>5</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="G6" s="6" t="n">
         <f aca="false">K6+L6+M6</f>
@@ -409,7 +429,7 @@
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">0.6*G6+0.4*F6</f>
-        <v>2</v>
+        <v>1.93333333333333</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -424,11 +444,15 @@
       <c r="C7" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" s="6" t="n">
         <f aca="false">AVERAGE(C7:E7)</f>
-        <v>4.5</v>
+        <v>3.16666666666667</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">K7+L7+M7</f>
@@ -436,7 +460,7 @@
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">0.6*G7+0.4*F7</f>
-        <v>1.8</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -451,11 +475,15 @@
       <c r="C8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="6" t="n">
         <f aca="false">AVERAGE(C8:E8)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6" t="n">
         <f aca="false">K8+L8+M8</f>
@@ -463,7 +491,7 @@
       </c>
       <c r="H8" s="6" t="n">
         <f aca="false">0.6*G8+0.4*F8</f>
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -478,8 +506,12 @@
       <c r="C9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" s="6" t="n">
         <f aca="false">AVERAGE(C9:E9)</f>
         <v>4</v>
@@ -505,11 +537,15 @@
       <c r="C10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" s="6" t="n">
         <f aca="false">AVERAGE(C10:E10)</f>
-        <v>4</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="G10" s="6" t="n">
         <f aca="false">K10+L10+M10</f>
@@ -517,73 +553,68 @@
       </c>
       <c r="H10" s="6" t="n">
         <f aca="false">0.6*G10+0.4*F10</f>
-        <v>1.6</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
     </row>

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t xml:space="preserve">Жукова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миронов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гранчак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шолков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каткова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колганов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кожушко</t>
   </si>
 </sst>
 </file>
@@ -200,12 +218,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -228,7 +246,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,7 +318,7 @@
         <v>3.5</v>
       </c>
       <c r="G2" s="6" t="n">
-        <f aca="false">K2+L2+M2</f>
+        <f aca="false">SUM(K2:M2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="6" t="n">
@@ -331,7 +349,7 @@
         <v>3.5</v>
       </c>
       <c r="G3" s="6" t="n">
-        <f aca="false">K3+L3+M3</f>
+        <f aca="false">SUM(K3:M3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="6" t="n">
@@ -362,7 +380,7 @@
         <v>4.83333333333333</v>
       </c>
       <c r="G4" s="6" t="n">
-        <f aca="false">K4+L4+M4</f>
+        <f aca="false">SUM(K4:M4)</f>
         <v>0</v>
       </c>
       <c r="H4" s="6" t="n">
@@ -392,8 +410,8 @@
         <f aca="false">AVERAGE(C5:E5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="7" t="n">
-        <f aca="false">K5+L5+M5</f>
+      <c r="G5" s="6" t="n">
+        <f aca="false">SUM(K5:M5)</f>
         <v>0</v>
       </c>
       <c r="H5" s="6" t="n">
@@ -416,7 +434,7 @@
       <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="7" t="n">
         <v>4.5</v>
       </c>
       <c r="F6" s="6" t="n">
@@ -424,7 +442,7 @@
         <v>4.83333333333333</v>
       </c>
       <c r="G6" s="6" t="n">
-        <f aca="false">K6+L6+M6</f>
+        <f aca="false">SUM(K6:M6)</f>
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
@@ -444,23 +462,23 @@
       <c r="C7" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
+      <c r="D7" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="n">
         <f aca="false">AVERAGE(C7:E7)</f>
-        <v>3.16666666666667</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <f aca="false">K7+L7+M7</f>
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <f aca="false">SUM(K7:M7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">0.6*G7+0.4*F7</f>
-        <v>1.26666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -475,23 +493,23 @@
       <c r="C8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
+      <c r="D8" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6" t="n">
         <f aca="false">AVERAGE(C8:E8)</f>
-        <v>1</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="G8" s="6" t="n">
-        <f aca="false">K8+L8+M8</f>
+        <f aca="false">SUM(K8:M8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="6" t="n">
         <f aca="false">0.6*G8+0.4*F8</f>
-        <v>0.4</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -517,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="6" t="n">
-        <f aca="false">K9+L9+M9</f>
+        <f aca="false">SUM(K9:M9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="6" t="n">
@@ -548,7 +566,7 @@
         <v>4.16666666666667</v>
       </c>
       <c r="G10" s="6" t="n">
-        <f aca="false">K10+L10+M10</f>
+        <f aca="false">SUM(K10:M10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
@@ -562,31 +580,187 @@
       <c r="A11" s="4" t="n">
         <v>11</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">AVERAGE(C11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <f aca="false">SUM(K11:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">0.6*G11+0.4*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>12</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">AVERAGE(C12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <f aca="false">SUM(K12:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">0.6*G12+0.4*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>13</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">AVERAGE(C13:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <f aca="false">SUM(K13:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">0.6*G13+0.4*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>14</v>
       </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">AVERAGE(C14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <f aca="false">SUM(K14:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">0.6*G14+0.4*F14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">AVERAGE(C15:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <f aca="false">SUM(K15:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">0.6*G15+0.4*F15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>16</v>
       </c>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">AVERAGE(C16:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <f aca="false">SUM(K16:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">0.6*G16+0.4*F16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">

--- a/Electronics/Рейтинг.xlsx
+++ b/Electronics/Рейтинг.xlsx
@@ -246,7 +246,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,14 +319,23 @@
       </c>
       <c r="G2" s="6" t="n">
         <f aca="false">SUM(K2:M2)</f>
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="H2" s="6" t="n">
         <f aca="false">0.6*G2+0.4*F2</f>
-        <v>1.4</v>
+        <v>3.872</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
+      <c r="K2" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -350,14 +359,23 @@
       </c>
       <c r="G3" s="6" t="n">
         <f aca="false">SUM(K3:M3)</f>
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">0.6*G3+0.4*F3</f>
-        <v>1.4</v>
+        <v>4.052</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
+      <c r="K3" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -381,14 +399,23 @@
       </c>
       <c r="G4" s="6" t="n">
         <f aca="false">SUM(K4:M4)</f>
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">0.6*G4+0.4*F4</f>
-        <v>1.93333333333333</v>
+        <v>4.30933333333333</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
+      <c r="K4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -412,14 +439,23 @@
       </c>
       <c r="G5" s="6" t="n">
         <f aca="false">SUM(K5:M5)</f>
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">0.6*G5+0.4*F5</f>
-        <v>1.6</v>
+        <v>4.588</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
+      <c r="K5" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -443,14 +479,23 @@
       </c>
       <c r="G6" s="6" t="n">
         <f aca="false">SUM(K6:M6)</f>
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">0.6*G6+0.4*F6</f>
-        <v>1.93333333333333</v>
+        <v>4.92133333333333</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
+      <c r="K6" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -474,14 +519,23 @@
       </c>
       <c r="G7" s="6" t="n">
         <f aca="false">SUM(K7:M7)</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">0.6*G7+0.4*F7</f>
-        <v>1.8</v>
+        <v>3.84</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
+      <c r="K7" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -505,14 +559,23 @@
       </c>
       <c r="G8" s="6" t="n">
         <f aca="false">SUM(K8:M8)</f>
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H8" s="6" t="n">
         <f aca="false">0.6*G8+0.4*F8</f>
-        <v>1.33333333333333</v>
+        <v>2.80933333333333</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -536,14 +599,23 @@
       </c>
       <c r="G9" s="6" t="n">
         <f aca="false">SUM(K9:M9)</f>
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H9" s="6" t="n">
         <f aca="false">0.6*G9+0.4*F9</f>
-        <v>1.6</v>
+        <v>3.94</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
+      <c r="K9" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -567,14 +639,23 @@
       </c>
       <c r="G10" s="6" t="n">
         <f aca="false">SUM(K10:M10)</f>
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="H10" s="6" t="n">
         <f aca="false">0.6*G10+0.4*F10</f>
-        <v>1.66666666666667</v>
+        <v>4.45666666666667</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
+      <c r="K10" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -597,12 +678,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="n">
-        <f aca="false">SUM(K11:M11)</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H11" s="6" t="n">
         <f aca="false">0.6*G11+0.4*F11</f>
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -628,7 +708,6 @@
         <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
-        <f aca="false">SUM(K12:M12)</f>
         <v>0</v>
       </c>
       <c r="H12" s="6" t="n">
